--- a/biology/Médecine/Rilpivirine/Rilpivirine.xlsx
+++ b/biology/Médecine/Rilpivirine/Rilpivirine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rilpivirine (TMC 278) est un médicament antirétroviral. C'est un analogue non-nucléosidique, inhibiteur de la transcriptase inverse (nNRTI) actuellement développé pour le traitement de l'infection par le VIH.
@@ -515,9 +527,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'efficacité antivirale chez les patients naïfs d'antirétroviraux (définie par la proportion de patient ayant une charge virale &lt; 50copies/mL), associée à 2 inhibiteurs mucléosidiques de la RT,  est comparable à celle de l'éfavirenz et serait mieux tolérée que cette dernière. Il existe cependant plus d'échecs virologiques dans le bras Rilpivirine (vs. Efavirenz) pour les hautes charges virales initiales (&gt; 100.000 copies/mL) avec apparition de mutations de résistance, dans les essais ECHO et THRIVE[2],[3] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'efficacité antivirale chez les patients naïfs d'antirétroviraux (définie par la proportion de patient ayant une charge virale &lt; 50copies/mL), associée à 2 inhibiteurs mucléosidiques de la RT,  est comparable à celle de l'éfavirenz et serait mieux tolérée que cette dernière. Il existe cependant plus d'échecs virologiques dans le bras Rilpivirine (vs. Efavirenz) pour les hautes charges virales initiales (&gt; 100.000 copies/mL) avec apparition de mutations de résistance, dans les essais ECHO et THRIVE, 
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Forme intramusculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie est longue et une forme intramusculaire a été développée, en association avec le cabotégravir, un inhibiteur de l'intégrase. Cette forme, en injection mensuelle, est aussi efficace qu'une trithérapie classique dans le cadre d'un traitement d'entretien[4]. Le délai entre deux injections peut même être prolongé tous les deux mois sans perte d'efficacité[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie est longue et une forme intramusculaire a été développée, en association avec le cabotégravir, un inhibiteur de l'intégrase. Cette forme, en injection mensuelle, est aussi efficace qu'une trithérapie classique dans le cadre d'un traitement d'entretien. Le délai entre deux injections peut même être prolongé tous les deux mois sans perte d'efficacité.
 </t>
         </is>
       </c>
